--- a/assets/downloadables/DCF_Form_2.xlsx
+++ b/assets/downloadables/DCF_Form_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Veriton M4660G\Downloads\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="form2" sheetId="1" r:id="rId1"/>
+    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <r>
       <rPr>
@@ -266,6 +267,48 @@
   <si>
     <t>Name of Partner FOs Engaged</t>
   </si>
+  <si>
+    <t>Input field</t>
+  </si>
+  <si>
+    <t>Guideline</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>DIP Alignment</t>
+  </si>
+  <si>
+    <t>DIP name format: Region_DIP Name (ex. R8_SC Global)</t>
+  </si>
+  <si>
+    <t>Indicate full  Business name of Anchor Firm/MSMEs based on official registration.</t>
+  </si>
+  <si>
+    <t>Business Name</t>
+  </si>
+  <si>
+    <t>Provide complete Business Address. (Format: Building, Street, Barangay, City/Municipality, Province)</t>
+  </si>
+  <si>
+    <t>Business Address of Owner or manager of the anchor firm/MSMEs</t>
+  </si>
+  <si>
+    <t>Indicate full name of FO based on official regisration.</t>
+  </si>
+  <si>
+    <t>Office Address of FO</t>
+  </si>
+  <si>
+    <t>Input number of hectares with four decimal places. (example: 143.1433)</t>
+  </si>
+  <si>
+    <t>Hectares Covered</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +467,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,8 +516,20 @@
         <bgColor rgb="FFD2F1DA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -641,11 +696,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -880,6 +963,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1178,7 +1283,7 @@
   <dimension ref="A1:AM1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AE5"/>
+      <selection activeCell="Y14" sqref="Y14:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,13 +1335,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="5"/>
@@ -1345,16 +1450,16 @@
       <c r="O3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="89" t="s">
+      <c r="Q3" s="100"/>
+      <c r="R3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="90"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="100"/>
       <c r="V3" s="58" t="s">
         <v>7</v>
       </c>
@@ -1376,10 +1481,10 @@
       <c r="AB3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="92" t="s">
+      <c r="AC3" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="92"/>
+      <c r="AD3" s="102"/>
       <c r="AE3" s="8" t="s">
         <v>0</v>
       </c>
@@ -16475,4 +16580,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="112.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="97"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/downloadables/DCF_Form_2.xlsx
+++ b/assets/downloadables/DCF_Form_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -309,6 +309,52 @@
   <si>
     <t>yyyy-mm-dd</t>
   </si>
+  <si>
+    <t>Input data using only number values. Avoid using any special characters or letters.</t>
+  </si>
+  <si>
+    <t>Select one (Northern Samar, Leyte, Southern Leyte, Zamboanga del Norte, 
+Zamboanga Sibugay, Zamboanga del Sur, Misamis Oriental, Bukidnon, Lanao del Norte, Davao de Oro, Davao Oriental, Davao del Norte,Davao del Sur, Davao Occidental, North Cotabato, Sultan Kudarat, Sarangani, Agusan del Norte, Agusan del Sur, Surigao del Sur,Maguindanao)</t>
+  </si>
+  <si>
+    <t>Enter Full name</t>
+  </si>
+  <si>
+    <t>Select one (PWD,Youth,IP,SC,Abled)</t>
+  </si>
+  <si>
+    <t>Name of Owner or Manager of the anchor Firm/MSMEs</t>
+  </si>
+  <si>
+    <t>Sector of Owner or manager of the anchor firm/MSMEs</t>
+  </si>
+  <si>
+    <t>Sector of Chairperson or Manager of Partner FO</t>
+  </si>
+  <si>
+    <t>Total number of FO members</t>
+  </si>
+  <si>
+    <t>Total number of FO members by Sector (17-20)</t>
+  </si>
+  <si>
+    <t>Total number of FO members by Sex (15-16)</t>
+  </si>
+  <si>
+    <t>Remarks/Status</t>
+  </si>
+  <si>
+    <t>Select one (None-renewal, Cancelled, On-going) if None-renewal or Cancelled selected add reason why (ex. Cancelled, sample text)</t>
+  </si>
+  <si>
+    <t>Activity/Agreements (Outputs vis-à-vis signed CPA)</t>
+  </si>
+  <si>
+    <t>if multiple data add comma (ex. sample text1, sample text2, sample text3)</t>
+  </si>
+  <si>
+    <t>if multiple data add comma (ex. yyyy-mm-dd, yyyy-mm-dd, yyyy-mm-dd)</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +364,7 @@
     <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +512,13 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -535,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -730,11 +783,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,14 +1047,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,12 +1072,20 @@
     <xf numFmtId="4" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1344,13 +1421,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="5"/>
@@ -1459,16 +1536,16 @@
       <c r="O3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="98" t="s">
+      <c r="P3" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="98" t="s">
+      <c r="Q3" s="100"/>
+      <c r="R3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="99"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="100"/>
       <c r="V3" s="57" t="s">
         <v>7</v>
       </c>
@@ -1490,10 +1567,10 @@
       <c r="AB3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="101" t="s">
+      <c r="AC3" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="101"/>
+      <c r="AD3" s="102"/>
       <c r="AE3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1564,97 +1641,97 @@
       <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102">
+      <c r="A5" s="96">
         <v>0</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="97">
         <v>1</v>
       </c>
-      <c r="C5" s="102">
+      <c r="C5" s="96">
         <v>2</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="97">
         <v>3</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="97">
         <v>4</v>
       </c>
-      <c r="F5" s="102">
+      <c r="F5" s="96">
         <v>5</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="97">
         <v>6</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="97">
         <v>7</v>
       </c>
-      <c r="I5" s="102">
+      <c r="I5" s="96">
         <v>8</v>
       </c>
-      <c r="J5" s="103">
+      <c r="J5" s="97">
         <v>9</v>
       </c>
-      <c r="K5" s="103">
+      <c r="K5" s="97">
         <v>10</v>
       </c>
-      <c r="L5" s="102">
+      <c r="L5" s="96">
         <v>11</v>
       </c>
-      <c r="M5" s="103">
+      <c r="M5" s="97">
         <v>12</v>
       </c>
-      <c r="N5" s="103">
+      <c r="N5" s="97">
         <v>13</v>
       </c>
-      <c r="O5" s="102">
+      <c r="O5" s="96">
         <v>14</v>
       </c>
-      <c r="P5" s="103">
+      <c r="P5" s="97">
         <v>15</v>
       </c>
-      <c r="Q5" s="103">
+      <c r="Q5" s="97">
         <v>16</v>
       </c>
-      <c r="R5" s="102">
+      <c r="R5" s="96">
         <v>17</v>
       </c>
-      <c r="S5" s="103">
+      <c r="S5" s="97">
         <v>18</v>
       </c>
-      <c r="T5" s="103">
+      <c r="T5" s="97">
         <v>19</v>
       </c>
-      <c r="U5" s="102">
+      <c r="U5" s="96">
         <v>20</v>
       </c>
-      <c r="V5" s="103">
+      <c r="V5" s="97">
         <v>21</v>
       </c>
-      <c r="W5" s="103">
+      <c r="W5" s="97">
         <v>22</v>
       </c>
-      <c r="X5" s="102">
+      <c r="X5" s="96">
         <v>23</v>
       </c>
-      <c r="Y5" s="103">
+      <c r="Y5" s="97">
         <v>24</v>
       </c>
-      <c r="Z5" s="103">
+      <c r="Z5" s="97">
         <v>25</v>
       </c>
-      <c r="AA5" s="102">
+      <c r="AA5" s="96">
         <v>26</v>
       </c>
-      <c r="AB5" s="103">
+      <c r="AB5" s="97">
         <v>27</v>
       </c>
-      <c r="AC5" s="103">
+      <c r="AC5" s="97">
         <v>28</v>
       </c>
-      <c r="AD5" s="102">
+      <c r="AD5" s="96">
         <v>29</v>
       </c>
-      <c r="AE5" s="103">
+      <c r="AE5" s="97">
         <v>30</v>
       </c>
       <c r="AF5" s="50"/>
@@ -16593,16 +16670,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.5703125" customWidth="1"/>
-    <col min="2" max="2" width="112.28515625" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16614,80 +16691,156 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B4" s="89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93" t="s">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B7" s="90" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B8" s="89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B9" s="89" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B11" s="90" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B15" s="89" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B16" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
